--- a/generator/2017_09.xlsx
+++ b/generator/2017_09.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="36">
   <si>
     <t>Family-Sponsored</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -74,18 +74,6 @@
     <t>EB3</t>
   </si>
   <si>
-    <t>1st</t>
-  </si>
-  <si>
-    <t>2nd</t>
-  </si>
-  <si>
-    <t>3rd</t>
-  </si>
-  <si>
-    <t>Other Workers</t>
-  </si>
-  <si>
     <t>01/01/2012</t>
   </si>
   <si>
@@ -113,9 +101,6 @@
     <t>15/09/1997</t>
   </si>
   <si>
-    <t>C </t>
-  </si>
-  <si>
     <t>01/01/2004</t>
   </si>
   <si>
@@ -147,12 +132,6 @@
   </si>
   <si>
     <t>01/11/2015</t>
-  </si>
-  <si>
-    <t>01JAN16 </t>
-  </si>
-  <si>
-    <t>15OCT06 </t>
   </si>
 </sst>
 </file>
@@ -162,7 +141,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="dd/mm/yyyy"/>
   </numFmts>
-  <fonts count="4">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -185,48 +164,21 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="8"/>
-      <color rgb="FF5E5E5E"/>
-      <name val="Verdana"/>
-      <family val="2"/>
-    </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFFF"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="2">
+  <borders count="1">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color rgb="FFAAAAAA"/>
-      </left>
-      <right style="medium">
-        <color rgb="FFAAAAAA"/>
-      </right>
-      <top style="medium">
-        <color rgb="FFAAAAAA"/>
-      </top>
-      <bottom style="medium">
-        <color rgb="FFAAAAAA"/>
-      </bottom>
       <diagonal/>
     </border>
   </borders>
@@ -236,7 +188,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -250,15 +202,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="164" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="15" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -567,7 +510,7 @@
   <dimension ref="A1:G14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7:F10"/>
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -605,19 +548,19 @@
         <v>10</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -625,19 +568,19 @@
         <v>11</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -645,19 +588,19 @@
         <v>12</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -665,19 +608,19 @@
         <v>13</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -685,19 +628,19 @@
         <v>14</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -708,10 +651,10 @@
         <v>9</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="E7" s="5" t="s">
         <v>9</v>
@@ -725,19 +668,19 @@
         <v>7</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="E8" s="5" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="F8" s="5" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="G8" s="6"/>
     </row>
@@ -749,16 +692,16 @@
         <v>9</v>
       </c>
       <c r="C9" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="D9" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="D9" s="5" t="s">
-        <v>24</v>
-      </c>
       <c r="E9" s="5" t="s">
-        <v>29</v>
+        <v>9</v>
       </c>
       <c r="F9" s="5" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="G9" s="6"/>
     </row>
@@ -770,16 +713,16 @@
         <v>9</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E10" s="5" t="s">
-        <v>29</v>
+        <v>9</v>
       </c>
       <c r="F10" s="5" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="G10" s="6"/>
     </row>
@@ -820,14 +763,15 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A5:G23"/>
+  <dimension ref="A14:A22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B14" sqref="B14:F17"/>
+      <selection activeCell="A14" sqref="A14:A22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
+    <col min="1" max="1" width="18.88671875" customWidth="1"/>
     <col min="2" max="2" width="15.6640625" customWidth="1"/>
     <col min="3" max="3" width="16.6640625" customWidth="1"/>
     <col min="4" max="4" width="9.44140625" bestFit="1" customWidth="1"/>
@@ -835,264 +779,49 @@
     <col min="6" max="6" width="9.21875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:6" ht="15" thickBot="1"/>
-    <row r="6" spans="1:6" ht="15" thickBot="1">
-      <c r="A6" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="B6" s="7">
-        <v>40299</v>
-      </c>
-      <c r="C6" s="7">
-        <v>40299</v>
-      </c>
-      <c r="D6" s="7">
-        <v>35096</v>
-      </c>
-      <c r="E6" s="7">
-        <v>39083</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" ht="15" thickBot="1">
-      <c r="A7" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="B7" s="7">
-        <v>42278</v>
-      </c>
-      <c r="C7" s="7">
-        <v>42278</v>
-      </c>
-      <c r="D7" s="7">
-        <v>42269</v>
-      </c>
-      <c r="E7" s="7">
-        <v>42278</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" ht="15" thickBot="1">
-      <c r="A8" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="B8" s="7">
-        <v>40483</v>
-      </c>
-      <c r="C8" s="7">
-        <v>40483</v>
-      </c>
-      <c r="D8" s="7">
-        <v>35247</v>
-      </c>
-      <c r="E8" s="7">
-        <v>39083</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" ht="15" thickBot="1">
-      <c r="A9" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="B9" s="7">
-        <v>38541</v>
-      </c>
-      <c r="C9" s="7">
-        <v>38541</v>
-      </c>
-      <c r="D9" s="7">
-        <v>34797</v>
-      </c>
-      <c r="E9" s="7">
-        <v>34745</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" ht="15" thickBot="1">
-      <c r="A10" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="B10" s="7">
-        <v>37257</v>
-      </c>
-      <c r="C10" s="7">
-        <v>37257</v>
-      </c>
-      <c r="D10" s="7">
-        <v>35688</v>
-      </c>
-      <c r="E10" s="7">
-        <v>34486</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" ht="15" thickBot="1"/>
-    <row r="14" spans="1:6" ht="15" thickBot="1">
-      <c r="A14" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="B14" s="7" t="s">
+    <row r="14" spans="1:1">
+      <c r="A14" s="3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1">
+      <c r="A15" s="3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1">
+      <c r="A16" s="3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1">
+      <c r="A17" s="3" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1">
+      <c r="A18" s="3" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1">
+      <c r="A19" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="C14" s="7">
-        <v>40909</v>
-      </c>
-      <c r="D14" s="7">
-        <v>40909</v>
-      </c>
-      <c r="E14" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" ht="15" thickBot="1">
-      <c r="A15" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="B15" s="7">
-        <v>42370</v>
-      </c>
-      <c r="C15" s="7">
-        <v>41409</v>
-      </c>
-      <c r="D15" s="7">
-        <v>39682</v>
-      </c>
-      <c r="E15" s="7">
-        <v>42370</v>
-      </c>
-      <c r="F15" s="7">
-        <v>42370</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" ht="15" thickBot="1">
-      <c r="A16" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="B16" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="C16" s="7">
-        <v>40909</v>
-      </c>
-      <c r="D16" s="7">
-        <v>39005</v>
-      </c>
-      <c r="E16" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="F16" s="7">
-        <v>42309</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" ht="21" thickBot="1">
-      <c r="A17" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="B17" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="C17" s="7">
-        <v>37987</v>
-      </c>
-      <c r="D17" s="7">
-        <v>39005</v>
-      </c>
-      <c r="E17" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="F17" s="7">
-        <v>42309</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" ht="15" thickBot="1"/>
-    <row r="20" spans="1:7" ht="15" thickBot="1">
-      <c r="A20" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="B20" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="C20" s="9">
-        <v>40909</v>
-      </c>
-      <c r="D20" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="E20" s="9">
-        <v>40909</v>
-      </c>
-      <c r="F20" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="G20" s="8" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" ht="15" thickBot="1">
-      <c r="A21" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="B21" s="8" t="s">
-        <v>41</v>
-      </c>
-      <c r="C21" s="9">
-        <v>41409</v>
-      </c>
-      <c r="D21" s="9">
-        <v>42370</v>
-      </c>
-      <c r="E21" s="9">
-        <v>39682</v>
-      </c>
-      <c r="F21" s="9">
-        <v>42370</v>
-      </c>
-      <c r="G21" s="9">
-        <v>42370</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" ht="15" thickBot="1">
-      <c r="A22" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="B22" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="C22" s="9">
-        <v>40909</v>
-      </c>
-      <c r="D22" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="E22" s="8" t="s">
-        <v>42</v>
-      </c>
-      <c r="F22" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="G22" s="9">
-        <v>42309</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" ht="21" thickBot="1">
-      <c r="A23" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="B23" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="C23" s="9">
-        <v>37987</v>
-      </c>
-      <c r="D23" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="E23" s="9">
-        <v>39005</v>
-      </c>
-      <c r="F23" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="G23" s="9">
-        <v>42309</v>
+    </row>
+    <row r="20" spans="1:1">
+      <c r="A20" s="5" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1">
+      <c r="A21" s="5" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1">
+      <c r="A22" s="5" t="s">
+        <v>35</v>
       </c>
     </row>
   </sheetData>
